--- a/files/Templates/STICS_tabDataTemplate.xlsx
+++ b/files/Templates/STICS_tabDataTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marpo\Documents\Research\STICS\Code\mkSTICSfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Students\Maria\STICS\mkSTICSfiles\files\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6054BA7-499A-4EB7-AB4A-688CAD711634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7D4B4B-C5AD-4127-8C2C-C67F21656CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="usms" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="sol" sheetId="3" r:id="rId3"/>
     <sheet name="tec" sheetId="5" r:id="rId4"/>
     <sheet name="sta" sheetId="6" r:id="rId5"/>
+    <sheet name="obs - usm1" sheetId="7" r:id="rId6"/>
+    <sheet name="obs - usm2" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -1205,7 +1207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1286,7 +1288,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1298,8 +1299,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1321,9 +1320,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1815,75 +1811,75 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" style="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" style="1" customWidth="1"/>
-    <col min="9" max="10" width="22.77734375" customWidth="1"/>
-    <col min="11" max="11" width="22.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.77734375" customWidth="1"/>
-    <col min="13" max="13" width="60.109375" customWidth="1"/>
-    <col min="14" max="14" width="22.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="22.77734375" style="9" customWidth="1"/>
-    <col min="16" max="17" width="22.77734375" customWidth="1"/>
-    <col min="18" max="18" width="22.77734375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="22.77734375" style="64" customWidth="1"/>
-    <col min="20" max="1025" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22.81640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="22.81640625" customWidth="1"/>
+    <col min="11" max="11" width="22.81640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.81640625" customWidth="1"/>
+    <col min="13" max="13" width="60.08984375" customWidth="1"/>
+    <col min="14" max="14" width="22.81640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22.81640625" style="9" customWidth="1"/>
+    <col min="16" max="17" width="22.81640625" customWidth="1"/>
+    <col min="18" max="18" width="22.81640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="22.81640625" style="61" customWidth="1"/>
+    <col min="20" max="1025" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:19" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="87" t="s">
+      <c r="I1" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="87" t="s">
+      <c r="J1" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="80" t="s">
+      <c r="K1" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="88" t="s">
+      <c r="L1" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="88" t="s">
+      <c r="M1" s="84" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="101" t="s">
+      <c r="O1" s="97" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="5" t="s">
@@ -1895,19 +1891,19 @@
       <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="84" t="s">
+      <c r="S1" s="80" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E2" s="81"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="E2" s="77"/>
       <c r="N2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="O2" s="100"/>
-      <c r="S2" s="63"/>
+      <c r="O2" s="96"/>
+      <c r="S2" s="60"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="E3" s="9"/>
     </row>
   </sheetData>
@@ -1927,32 +1923,32 @@
       <selection pane="bottomRight" activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
-    <col min="7" max="7" width="33.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" style="1" customWidth="1"/>
-    <col min="11" max="14" width="18.6640625" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
-    <col min="16" max="19" width="7.109375" customWidth="1"/>
-    <col min="20" max="20" width="7.109375" style="1" customWidth="1"/>
-    <col min="21" max="24" width="9.88671875" customWidth="1"/>
-    <col min="25" max="25" width="9.88671875" style="1" customWidth="1"/>
-    <col min="26" max="29" width="9.6640625" customWidth="1"/>
-    <col min="30" max="30" width="9.6640625" style="8" customWidth="1"/>
-    <col min="31" max="1014" width="10.5546875" customWidth="1"/>
-    <col min="1015" max="1025" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" customWidth="1"/>
+    <col min="7" max="7" width="33.90625" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" customWidth="1"/>
+    <col min="9" max="9" width="16.90625" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" style="1" customWidth="1"/>
+    <col min="11" max="14" width="18.6328125" customWidth="1"/>
+    <col min="15" max="15" width="18.6328125" style="1" customWidth="1"/>
+    <col min="16" max="19" width="7.08984375" customWidth="1"/>
+    <col min="20" max="20" width="7.08984375" style="1" customWidth="1"/>
+    <col min="21" max="24" width="9.90625" customWidth="1"/>
+    <col min="25" max="25" width="9.90625" style="1" customWidth="1"/>
+    <col min="26" max="29" width="9.6328125" customWidth="1"/>
+    <col min="30" max="30" width="9.6328125" style="8" customWidth="1"/>
+    <col min="31" max="1014" width="10.54296875" customWidth="1"/>
+    <col min="1015" max="1025" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="90" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1997,53 +1993,53 @@
       <c r="O1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="95" t="s">
+      <c r="P1" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="95" t="s">
+      <c r="Q1" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="95" t="s">
+      <c r="R1" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="95" t="s">
+      <c r="S1" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="96" t="s">
+      <c r="T1" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="97" t="s">
+      <c r="U1" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="97" t="s">
+      <c r="V1" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="97" t="s">
+      <c r="W1" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="97" t="s">
+      <c r="X1" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="94" t="s">
+      <c r="Y1" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="98" t="s">
+      <c r="Z1" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="98" t="s">
+      <c r="AA1" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="98" t="s">
+      <c r="AB1" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="98" t="s">
+      <c r="AC1" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="99" t="s">
+      <c r="AD1" s="95" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -2090,12 +2086,12 @@
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
-      <c r="T2" s="62"/>
+      <c r="T2" s="59"/>
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
       <c r="W2" s="13"/>
       <c r="X2" s="13"/>
-      <c r="Y2" s="62"/>
+      <c r="Y2" s="59"/>
       <c r="Z2" s="13"/>
       <c r="AA2" s="13"/>
       <c r="AB2" s="13"/>
@@ -2110,7 +2106,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BO15"/>
+  <dimension ref="A1:BO14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
@@ -2119,255 +2115,255 @@
       <selection pane="bottomRight" activeCell="BG1" sqref="BG1:BJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.21875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" customWidth="1"/>
-    <col min="5" max="6" width="4.5546875" customWidth="1"/>
-    <col min="7" max="8" width="9.109375" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" style="15" customWidth="1"/>
-    <col min="10" max="13" width="8.33203125" style="15" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" style="15" customWidth="1"/>
-    <col min="15" max="33" width="8.33203125" style="15" customWidth="1"/>
-    <col min="34" max="34" width="8.33203125" style="61" customWidth="1"/>
-    <col min="35" max="38" width="8.33203125" style="15" customWidth="1"/>
-    <col min="39" max="39" width="14.6640625" style="15" customWidth="1"/>
-    <col min="40" max="41" width="8.33203125" style="15" customWidth="1"/>
-    <col min="42" max="42" width="8.33203125" style="61" customWidth="1"/>
-    <col min="43" max="49" width="8.33203125" style="15" customWidth="1"/>
-    <col min="50" max="50" width="8.33203125" style="61" customWidth="1"/>
-    <col min="51" max="57" width="8.33203125" style="15" customWidth="1"/>
-    <col min="58" max="58" width="8.33203125" style="61" customWidth="1"/>
-    <col min="59" max="63" width="8.33203125" style="15" customWidth="1"/>
-    <col min="64" max="65" width="10.5546875" style="15" customWidth="1"/>
-    <col min="66" max="66" width="10.5546875" style="61" customWidth="1"/>
-    <col min="67" max="67" width="8.33203125" style="70" customWidth="1"/>
-    <col min="68" max="73" width="10.5546875" customWidth="1"/>
-    <col min="74" max="74" width="12.5546875" customWidth="1"/>
-    <col min="75" max="254" width="10.5546875" customWidth="1"/>
-    <col min="255" max="255" width="9.44140625" customWidth="1"/>
-    <col min="256" max="256" width="6.6640625" customWidth="1"/>
-    <col min="257" max="257" width="5.5546875" customWidth="1"/>
-    <col min="258" max="258" width="5.44140625" customWidth="1"/>
-    <col min="259" max="259" width="5.6640625" customWidth="1"/>
-    <col min="260" max="260" width="4.6640625" customWidth="1"/>
-    <col min="261" max="261" width="6.88671875" customWidth="1"/>
-    <col min="262" max="262" width="5.44140625" customWidth="1"/>
-    <col min="263" max="263" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="5.54296875" customWidth="1"/>
+    <col min="3" max="3" width="4.54296875" customWidth="1"/>
+    <col min="4" max="4" width="5.08984375" customWidth="1"/>
+    <col min="5" max="6" width="4.54296875" customWidth="1"/>
+    <col min="7" max="8" width="9.08984375" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" style="15" customWidth="1"/>
+    <col min="10" max="13" width="8.36328125" style="15" customWidth="1"/>
+    <col min="14" max="14" width="14.6328125" style="15" customWidth="1"/>
+    <col min="15" max="33" width="8.36328125" style="15" customWidth="1"/>
+    <col min="34" max="34" width="8.36328125" style="58" customWidth="1"/>
+    <col min="35" max="38" width="8.36328125" style="15" customWidth="1"/>
+    <col min="39" max="39" width="14.6328125" style="15" customWidth="1"/>
+    <col min="40" max="41" width="8.36328125" style="15" customWidth="1"/>
+    <col min="42" max="42" width="8.36328125" style="58" customWidth="1"/>
+    <col min="43" max="49" width="8.36328125" style="15" customWidth="1"/>
+    <col min="50" max="50" width="8.36328125" style="58" customWidth="1"/>
+    <col min="51" max="57" width="8.36328125" style="15" customWidth="1"/>
+    <col min="58" max="58" width="8.36328125" style="58" customWidth="1"/>
+    <col min="59" max="63" width="8.36328125" style="15" customWidth="1"/>
+    <col min="64" max="65" width="10.54296875" style="15" customWidth="1"/>
+    <col min="66" max="66" width="10.54296875" style="58" customWidth="1"/>
+    <col min="67" max="67" width="8.36328125" style="67" customWidth="1"/>
+    <col min="68" max="73" width="10.54296875" customWidth="1"/>
+    <col min="74" max="74" width="12.54296875" customWidth="1"/>
+    <col min="75" max="254" width="10.54296875" customWidth="1"/>
+    <col min="255" max="255" width="9.453125" customWidth="1"/>
+    <col min="256" max="256" width="6.6328125" customWidth="1"/>
+    <col min="257" max="257" width="5.54296875" customWidth="1"/>
+    <col min="258" max="258" width="5.453125" customWidth="1"/>
+    <col min="259" max="259" width="5.6328125" customWidth="1"/>
+    <col min="260" max="260" width="4.6328125" customWidth="1"/>
+    <col min="261" max="261" width="6.90625" customWidth="1"/>
+    <col min="262" max="262" width="5.453125" customWidth="1"/>
+    <col min="263" max="263" width="4.6328125" customWidth="1"/>
     <col min="264" max="264" width="5" customWidth="1"/>
-    <col min="265" max="265" width="6.21875" customWidth="1"/>
-    <col min="266" max="266" width="6.44140625" customWidth="1"/>
-    <col min="267" max="267" width="7.109375" customWidth="1"/>
-    <col min="268" max="268" width="5.5546875" customWidth="1"/>
-    <col min="269" max="269" width="5.6640625" customWidth="1"/>
-    <col min="270" max="270" width="6.5546875" customWidth="1"/>
-    <col min="271" max="271" width="6.44140625" customWidth="1"/>
+    <col min="265" max="265" width="6.1796875" customWidth="1"/>
+    <col min="266" max="266" width="6.453125" customWidth="1"/>
+    <col min="267" max="267" width="7.08984375" customWidth="1"/>
+    <col min="268" max="268" width="5.54296875" customWidth="1"/>
+    <col min="269" max="269" width="5.6328125" customWidth="1"/>
+    <col min="270" max="270" width="6.54296875" customWidth="1"/>
+    <col min="271" max="271" width="6.453125" customWidth="1"/>
     <col min="272" max="272" width="6" customWidth="1"/>
-    <col min="273" max="273" width="5.109375" customWidth="1"/>
-    <col min="274" max="274" width="6.5546875" customWidth="1"/>
-    <col min="275" max="277" width="5.88671875" customWidth="1"/>
-    <col min="278" max="278" width="5.6640625" customWidth="1"/>
-    <col min="279" max="279" width="6.109375" customWidth="1"/>
-    <col min="280" max="280" width="8.21875" customWidth="1"/>
-    <col min="281" max="281" width="6.88671875" customWidth="1"/>
-    <col min="282" max="282" width="6.6640625" customWidth="1"/>
-    <col min="283" max="283" width="5.109375" customWidth="1"/>
-    <col min="284" max="284" width="6.5546875" customWidth="1"/>
-    <col min="285" max="285" width="8.109375" customWidth="1"/>
-    <col min="286" max="287" width="5.88671875" customWidth="1"/>
-    <col min="288" max="288" width="5.6640625" customWidth="1"/>
+    <col min="273" max="273" width="5.08984375" customWidth="1"/>
+    <col min="274" max="274" width="6.54296875" customWidth="1"/>
+    <col min="275" max="277" width="5.90625" customWidth="1"/>
+    <col min="278" max="278" width="5.6328125" customWidth="1"/>
+    <col min="279" max="279" width="6.08984375" customWidth="1"/>
+    <col min="280" max="280" width="8.1796875" customWidth="1"/>
+    <col min="281" max="281" width="6.90625" customWidth="1"/>
+    <col min="282" max="282" width="6.6328125" customWidth="1"/>
+    <col min="283" max="283" width="5.08984375" customWidth="1"/>
+    <col min="284" max="284" width="6.54296875" customWidth="1"/>
+    <col min="285" max="285" width="8.08984375" customWidth="1"/>
+    <col min="286" max="287" width="5.90625" customWidth="1"/>
+    <col min="288" max="288" width="5.6328125" customWidth="1"/>
     <col min="289" max="289" width="6" customWidth="1"/>
-    <col min="290" max="290" width="7.21875" customWidth="1"/>
-    <col min="291" max="291" width="6.88671875" customWidth="1"/>
-    <col min="292" max="292" width="6.6640625" customWidth="1"/>
-    <col min="293" max="293" width="5.109375" customWidth="1"/>
-    <col min="294" max="294" width="6.5546875" customWidth="1"/>
-    <col min="295" max="295" width="8.109375" customWidth="1"/>
-    <col min="296" max="297" width="5.88671875" customWidth="1"/>
-    <col min="298" max="298" width="5.6640625" customWidth="1"/>
-    <col min="299" max="299" width="6.44140625" customWidth="1"/>
-    <col min="300" max="300" width="9.21875" customWidth="1"/>
-    <col min="301" max="301" width="6.88671875" customWidth="1"/>
-    <col min="302" max="302" width="6.6640625" customWidth="1"/>
-    <col min="303" max="303" width="5.109375" customWidth="1"/>
-    <col min="304" max="304" width="6.5546875" customWidth="1"/>
-    <col min="305" max="305" width="8.109375" customWidth="1"/>
-    <col min="306" max="307" width="5.88671875" customWidth="1"/>
-    <col min="308" max="308" width="5.6640625" customWidth="1"/>
-    <col min="309" max="309" width="7.21875" customWidth="1"/>
-    <col min="310" max="310" width="9.6640625" customWidth="1"/>
-    <col min="311" max="311" width="6.88671875" customWidth="1"/>
-    <col min="312" max="312" width="6.6640625" customWidth="1"/>
-    <col min="313" max="313" width="5.109375" customWidth="1"/>
-    <col min="314" max="314" width="6.5546875" customWidth="1"/>
-    <col min="315" max="315" width="8.109375" customWidth="1"/>
-    <col min="316" max="317" width="5.88671875" customWidth="1"/>
-    <col min="318" max="318" width="5.6640625" customWidth="1"/>
+    <col min="290" max="290" width="7.1796875" customWidth="1"/>
+    <col min="291" max="291" width="6.90625" customWidth="1"/>
+    <col min="292" max="292" width="6.6328125" customWidth="1"/>
+    <col min="293" max="293" width="5.08984375" customWidth="1"/>
+    <col min="294" max="294" width="6.54296875" customWidth="1"/>
+    <col min="295" max="295" width="8.08984375" customWidth="1"/>
+    <col min="296" max="297" width="5.90625" customWidth="1"/>
+    <col min="298" max="298" width="5.6328125" customWidth="1"/>
+    <col min="299" max="299" width="6.453125" customWidth="1"/>
+    <col min="300" max="300" width="9.1796875" customWidth="1"/>
+    <col min="301" max="301" width="6.90625" customWidth="1"/>
+    <col min="302" max="302" width="6.6328125" customWidth="1"/>
+    <col min="303" max="303" width="5.08984375" customWidth="1"/>
+    <col min="304" max="304" width="6.54296875" customWidth="1"/>
+    <col min="305" max="305" width="8.08984375" customWidth="1"/>
+    <col min="306" max="307" width="5.90625" customWidth="1"/>
+    <col min="308" max="308" width="5.6328125" customWidth="1"/>
+    <col min="309" max="309" width="7.1796875" customWidth="1"/>
+    <col min="310" max="310" width="9.6328125" customWidth="1"/>
+    <col min="311" max="311" width="6.90625" customWidth="1"/>
+    <col min="312" max="312" width="6.6328125" customWidth="1"/>
+    <col min="313" max="313" width="5.08984375" customWidth="1"/>
+    <col min="314" max="314" width="6.54296875" customWidth="1"/>
+    <col min="315" max="315" width="8.08984375" customWidth="1"/>
+    <col min="316" max="317" width="5.90625" customWidth="1"/>
+    <col min="318" max="318" width="5.6328125" customWidth="1"/>
     <col min="319" max="320" width="9" customWidth="1"/>
-    <col min="321" max="321" width="6.88671875" customWidth="1"/>
-    <col min="322" max="322" width="6.6640625" customWidth="1"/>
-    <col min="323" max="329" width="10.5546875" customWidth="1"/>
-    <col min="330" max="330" width="12.5546875" customWidth="1"/>
-    <col min="331" max="510" width="10.5546875" customWidth="1"/>
-    <col min="511" max="511" width="9.44140625" customWidth="1"/>
-    <col min="512" max="512" width="6.6640625" customWidth="1"/>
-    <col min="513" max="513" width="5.5546875" customWidth="1"/>
-    <col min="514" max="514" width="5.44140625" customWidth="1"/>
-    <col min="515" max="515" width="5.6640625" customWidth="1"/>
-    <col min="516" max="516" width="4.6640625" customWidth="1"/>
-    <col min="517" max="517" width="6.88671875" customWidth="1"/>
-    <col min="518" max="518" width="5.44140625" customWidth="1"/>
-    <col min="519" max="519" width="4.6640625" customWidth="1"/>
+    <col min="321" max="321" width="6.90625" customWidth="1"/>
+    <col min="322" max="322" width="6.6328125" customWidth="1"/>
+    <col min="323" max="329" width="10.54296875" customWidth="1"/>
+    <col min="330" max="330" width="12.54296875" customWidth="1"/>
+    <col min="331" max="510" width="10.54296875" customWidth="1"/>
+    <col min="511" max="511" width="9.453125" customWidth="1"/>
+    <col min="512" max="512" width="6.6328125" customWidth="1"/>
+    <col min="513" max="513" width="5.54296875" customWidth="1"/>
+    <col min="514" max="514" width="5.453125" customWidth="1"/>
+    <col min="515" max="515" width="5.6328125" customWidth="1"/>
+    <col min="516" max="516" width="4.6328125" customWidth="1"/>
+    <col min="517" max="517" width="6.90625" customWidth="1"/>
+    <col min="518" max="518" width="5.453125" customWidth="1"/>
+    <col min="519" max="519" width="4.6328125" customWidth="1"/>
     <col min="520" max="520" width="5" customWidth="1"/>
-    <col min="521" max="521" width="6.21875" customWidth="1"/>
-    <col min="522" max="522" width="6.44140625" customWidth="1"/>
-    <col min="523" max="523" width="7.109375" customWidth="1"/>
-    <col min="524" max="524" width="5.5546875" customWidth="1"/>
-    <col min="525" max="525" width="5.6640625" customWidth="1"/>
-    <col min="526" max="526" width="6.5546875" customWidth="1"/>
-    <col min="527" max="527" width="6.44140625" customWidth="1"/>
+    <col min="521" max="521" width="6.1796875" customWidth="1"/>
+    <col min="522" max="522" width="6.453125" customWidth="1"/>
+    <col min="523" max="523" width="7.08984375" customWidth="1"/>
+    <col min="524" max="524" width="5.54296875" customWidth="1"/>
+    <col min="525" max="525" width="5.6328125" customWidth="1"/>
+    <col min="526" max="526" width="6.54296875" customWidth="1"/>
+    <col min="527" max="527" width="6.453125" customWidth="1"/>
     <col min="528" max="528" width="6" customWidth="1"/>
-    <col min="529" max="529" width="5.109375" customWidth="1"/>
-    <col min="530" max="530" width="6.5546875" customWidth="1"/>
-    <col min="531" max="533" width="5.88671875" customWidth="1"/>
-    <col min="534" max="534" width="5.6640625" customWidth="1"/>
-    <col min="535" max="535" width="6.109375" customWidth="1"/>
-    <col min="536" max="536" width="8.21875" customWidth="1"/>
-    <col min="537" max="537" width="6.88671875" customWidth="1"/>
-    <col min="538" max="538" width="6.6640625" customWidth="1"/>
-    <col min="539" max="539" width="5.109375" customWidth="1"/>
-    <col min="540" max="540" width="6.5546875" customWidth="1"/>
-    <col min="541" max="541" width="8.109375" customWidth="1"/>
-    <col min="542" max="543" width="5.88671875" customWidth="1"/>
-    <col min="544" max="544" width="5.6640625" customWidth="1"/>
+    <col min="529" max="529" width="5.08984375" customWidth="1"/>
+    <col min="530" max="530" width="6.54296875" customWidth="1"/>
+    <col min="531" max="533" width="5.90625" customWidth="1"/>
+    <col min="534" max="534" width="5.6328125" customWidth="1"/>
+    <col min="535" max="535" width="6.08984375" customWidth="1"/>
+    <col min="536" max="536" width="8.1796875" customWidth="1"/>
+    <col min="537" max="537" width="6.90625" customWidth="1"/>
+    <col min="538" max="538" width="6.6328125" customWidth="1"/>
+    <col min="539" max="539" width="5.08984375" customWidth="1"/>
+    <col min="540" max="540" width="6.54296875" customWidth="1"/>
+    <col min="541" max="541" width="8.08984375" customWidth="1"/>
+    <col min="542" max="543" width="5.90625" customWidth="1"/>
+    <col min="544" max="544" width="5.6328125" customWidth="1"/>
     <col min="545" max="545" width="6" customWidth="1"/>
-    <col min="546" max="546" width="7.21875" customWidth="1"/>
-    <col min="547" max="547" width="6.88671875" customWidth="1"/>
-    <col min="548" max="548" width="6.6640625" customWidth="1"/>
-    <col min="549" max="549" width="5.109375" customWidth="1"/>
-    <col min="550" max="550" width="6.5546875" customWidth="1"/>
-    <col min="551" max="551" width="8.109375" customWidth="1"/>
-    <col min="552" max="553" width="5.88671875" customWidth="1"/>
-    <col min="554" max="554" width="5.6640625" customWidth="1"/>
-    <col min="555" max="555" width="6.44140625" customWidth="1"/>
-    <col min="556" max="556" width="9.21875" customWidth="1"/>
-    <col min="557" max="557" width="6.88671875" customWidth="1"/>
-    <col min="558" max="558" width="6.6640625" customWidth="1"/>
-    <col min="559" max="559" width="5.109375" customWidth="1"/>
-    <col min="560" max="560" width="6.5546875" customWidth="1"/>
-    <col min="561" max="561" width="8.109375" customWidth="1"/>
-    <col min="562" max="563" width="5.88671875" customWidth="1"/>
-    <col min="564" max="564" width="5.6640625" customWidth="1"/>
-    <col min="565" max="565" width="7.21875" customWidth="1"/>
-    <col min="566" max="566" width="9.6640625" customWidth="1"/>
-    <col min="567" max="567" width="6.88671875" customWidth="1"/>
-    <col min="568" max="568" width="6.6640625" customWidth="1"/>
-    <col min="569" max="569" width="5.109375" customWidth="1"/>
-    <col min="570" max="570" width="6.5546875" customWidth="1"/>
-    <col min="571" max="571" width="8.109375" customWidth="1"/>
-    <col min="572" max="573" width="5.88671875" customWidth="1"/>
-    <col min="574" max="574" width="5.6640625" customWidth="1"/>
+    <col min="546" max="546" width="7.1796875" customWidth="1"/>
+    <col min="547" max="547" width="6.90625" customWidth="1"/>
+    <col min="548" max="548" width="6.6328125" customWidth="1"/>
+    <col min="549" max="549" width="5.08984375" customWidth="1"/>
+    <col min="550" max="550" width="6.54296875" customWidth="1"/>
+    <col min="551" max="551" width="8.08984375" customWidth="1"/>
+    <col min="552" max="553" width="5.90625" customWidth="1"/>
+    <col min="554" max="554" width="5.6328125" customWidth="1"/>
+    <col min="555" max="555" width="6.453125" customWidth="1"/>
+    <col min="556" max="556" width="9.1796875" customWidth="1"/>
+    <col min="557" max="557" width="6.90625" customWidth="1"/>
+    <col min="558" max="558" width="6.6328125" customWidth="1"/>
+    <col min="559" max="559" width="5.08984375" customWidth="1"/>
+    <col min="560" max="560" width="6.54296875" customWidth="1"/>
+    <col min="561" max="561" width="8.08984375" customWidth="1"/>
+    <col min="562" max="563" width="5.90625" customWidth="1"/>
+    <col min="564" max="564" width="5.6328125" customWidth="1"/>
+    <col min="565" max="565" width="7.1796875" customWidth="1"/>
+    <col min="566" max="566" width="9.6328125" customWidth="1"/>
+    <col min="567" max="567" width="6.90625" customWidth="1"/>
+    <col min="568" max="568" width="6.6328125" customWidth="1"/>
+    <col min="569" max="569" width="5.08984375" customWidth="1"/>
+    <col min="570" max="570" width="6.54296875" customWidth="1"/>
+    <col min="571" max="571" width="8.08984375" customWidth="1"/>
+    <col min="572" max="573" width="5.90625" customWidth="1"/>
+    <col min="574" max="574" width="5.6328125" customWidth="1"/>
     <col min="575" max="576" width="9" customWidth="1"/>
-    <col min="577" max="577" width="6.88671875" customWidth="1"/>
-    <col min="578" max="578" width="6.6640625" customWidth="1"/>
-    <col min="579" max="585" width="10.5546875" customWidth="1"/>
-    <col min="586" max="586" width="12.5546875" customWidth="1"/>
-    <col min="587" max="766" width="10.5546875" customWidth="1"/>
-    <col min="767" max="767" width="9.44140625" customWidth="1"/>
-    <col min="768" max="768" width="6.6640625" customWidth="1"/>
-    <col min="769" max="769" width="5.5546875" customWidth="1"/>
-    <col min="770" max="770" width="5.44140625" customWidth="1"/>
-    <col min="771" max="771" width="5.6640625" customWidth="1"/>
-    <col min="772" max="772" width="4.6640625" customWidth="1"/>
-    <col min="773" max="773" width="6.88671875" customWidth="1"/>
-    <col min="774" max="774" width="5.44140625" customWidth="1"/>
-    <col min="775" max="775" width="4.6640625" customWidth="1"/>
+    <col min="577" max="577" width="6.90625" customWidth="1"/>
+    <col min="578" max="578" width="6.6328125" customWidth="1"/>
+    <col min="579" max="585" width="10.54296875" customWidth="1"/>
+    <col min="586" max="586" width="12.54296875" customWidth="1"/>
+    <col min="587" max="766" width="10.54296875" customWidth="1"/>
+    <col min="767" max="767" width="9.453125" customWidth="1"/>
+    <col min="768" max="768" width="6.6328125" customWidth="1"/>
+    <col min="769" max="769" width="5.54296875" customWidth="1"/>
+    <col min="770" max="770" width="5.453125" customWidth="1"/>
+    <col min="771" max="771" width="5.6328125" customWidth="1"/>
+    <col min="772" max="772" width="4.6328125" customWidth="1"/>
+    <col min="773" max="773" width="6.90625" customWidth="1"/>
+    <col min="774" max="774" width="5.453125" customWidth="1"/>
+    <col min="775" max="775" width="4.6328125" customWidth="1"/>
     <col min="776" max="776" width="5" customWidth="1"/>
-    <col min="777" max="777" width="6.21875" customWidth="1"/>
-    <col min="778" max="778" width="6.44140625" customWidth="1"/>
-    <col min="779" max="779" width="7.109375" customWidth="1"/>
-    <col min="780" max="780" width="5.5546875" customWidth="1"/>
-    <col min="781" max="781" width="5.6640625" customWidth="1"/>
-    <col min="782" max="782" width="6.5546875" customWidth="1"/>
-    <col min="783" max="783" width="6.44140625" customWidth="1"/>
+    <col min="777" max="777" width="6.1796875" customWidth="1"/>
+    <col min="778" max="778" width="6.453125" customWidth="1"/>
+    <col min="779" max="779" width="7.08984375" customWidth="1"/>
+    <col min="780" max="780" width="5.54296875" customWidth="1"/>
+    <col min="781" max="781" width="5.6328125" customWidth="1"/>
+    <col min="782" max="782" width="6.54296875" customWidth="1"/>
+    <col min="783" max="783" width="6.453125" customWidth="1"/>
     <col min="784" max="784" width="6" customWidth="1"/>
-    <col min="785" max="785" width="5.109375" customWidth="1"/>
-    <col min="786" max="786" width="6.5546875" customWidth="1"/>
-    <col min="787" max="789" width="5.88671875" customWidth="1"/>
-    <col min="790" max="790" width="5.6640625" customWidth="1"/>
-    <col min="791" max="791" width="6.109375" customWidth="1"/>
-    <col min="792" max="792" width="8.21875" customWidth="1"/>
-    <col min="793" max="793" width="6.88671875" customWidth="1"/>
-    <col min="794" max="794" width="6.6640625" customWidth="1"/>
-    <col min="795" max="795" width="5.109375" customWidth="1"/>
-    <col min="796" max="796" width="6.5546875" customWidth="1"/>
-    <col min="797" max="797" width="8.109375" customWidth="1"/>
-    <col min="798" max="799" width="5.88671875" customWidth="1"/>
-    <col min="800" max="800" width="5.6640625" customWidth="1"/>
+    <col min="785" max="785" width="5.08984375" customWidth="1"/>
+    <col min="786" max="786" width="6.54296875" customWidth="1"/>
+    <col min="787" max="789" width="5.90625" customWidth="1"/>
+    <col min="790" max="790" width="5.6328125" customWidth="1"/>
+    <col min="791" max="791" width="6.08984375" customWidth="1"/>
+    <col min="792" max="792" width="8.1796875" customWidth="1"/>
+    <col min="793" max="793" width="6.90625" customWidth="1"/>
+    <col min="794" max="794" width="6.6328125" customWidth="1"/>
+    <col min="795" max="795" width="5.08984375" customWidth="1"/>
+    <col min="796" max="796" width="6.54296875" customWidth="1"/>
+    <col min="797" max="797" width="8.08984375" customWidth="1"/>
+    <col min="798" max="799" width="5.90625" customWidth="1"/>
+    <col min="800" max="800" width="5.6328125" customWidth="1"/>
     <col min="801" max="801" width="6" customWidth="1"/>
-    <col min="802" max="802" width="7.21875" customWidth="1"/>
-    <col min="803" max="803" width="6.88671875" customWidth="1"/>
-    <col min="804" max="804" width="6.6640625" customWidth="1"/>
-    <col min="805" max="805" width="5.109375" customWidth="1"/>
-    <col min="806" max="806" width="6.5546875" customWidth="1"/>
-    <col min="807" max="807" width="8.109375" customWidth="1"/>
-    <col min="808" max="809" width="5.88671875" customWidth="1"/>
-    <col min="810" max="810" width="5.6640625" customWidth="1"/>
-    <col min="811" max="811" width="6.44140625" customWidth="1"/>
-    <col min="812" max="812" width="9.21875" customWidth="1"/>
-    <col min="813" max="813" width="6.88671875" customWidth="1"/>
-    <col min="814" max="814" width="6.6640625" customWidth="1"/>
-    <col min="815" max="815" width="5.109375" customWidth="1"/>
-    <col min="816" max="816" width="6.5546875" customWidth="1"/>
-    <col min="817" max="817" width="8.109375" customWidth="1"/>
-    <col min="818" max="819" width="5.88671875" customWidth="1"/>
-    <col min="820" max="820" width="5.6640625" customWidth="1"/>
-    <col min="821" max="821" width="7.21875" customWidth="1"/>
-    <col min="822" max="822" width="9.6640625" customWidth="1"/>
-    <col min="823" max="823" width="6.88671875" customWidth="1"/>
-    <col min="824" max="824" width="6.6640625" customWidth="1"/>
-    <col min="825" max="825" width="5.109375" customWidth="1"/>
-    <col min="826" max="826" width="6.5546875" customWidth="1"/>
-    <col min="827" max="827" width="8.109375" customWidth="1"/>
-    <col min="828" max="829" width="5.88671875" customWidth="1"/>
-    <col min="830" max="830" width="5.6640625" customWidth="1"/>
+    <col min="802" max="802" width="7.1796875" customWidth="1"/>
+    <col min="803" max="803" width="6.90625" customWidth="1"/>
+    <col min="804" max="804" width="6.6328125" customWidth="1"/>
+    <col min="805" max="805" width="5.08984375" customWidth="1"/>
+    <col min="806" max="806" width="6.54296875" customWidth="1"/>
+    <col min="807" max="807" width="8.08984375" customWidth="1"/>
+    <col min="808" max="809" width="5.90625" customWidth="1"/>
+    <col min="810" max="810" width="5.6328125" customWidth="1"/>
+    <col min="811" max="811" width="6.453125" customWidth="1"/>
+    <col min="812" max="812" width="9.1796875" customWidth="1"/>
+    <col min="813" max="813" width="6.90625" customWidth="1"/>
+    <col min="814" max="814" width="6.6328125" customWidth="1"/>
+    <col min="815" max="815" width="5.08984375" customWidth="1"/>
+    <col min="816" max="816" width="6.54296875" customWidth="1"/>
+    <col min="817" max="817" width="8.08984375" customWidth="1"/>
+    <col min="818" max="819" width="5.90625" customWidth="1"/>
+    <col min="820" max="820" width="5.6328125" customWidth="1"/>
+    <col min="821" max="821" width="7.1796875" customWidth="1"/>
+    <col min="822" max="822" width="9.6328125" customWidth="1"/>
+    <col min="823" max="823" width="6.90625" customWidth="1"/>
+    <col min="824" max="824" width="6.6328125" customWidth="1"/>
+    <col min="825" max="825" width="5.08984375" customWidth="1"/>
+    <col min="826" max="826" width="6.54296875" customWidth="1"/>
+    <col min="827" max="827" width="8.08984375" customWidth="1"/>
+    <col min="828" max="829" width="5.90625" customWidth="1"/>
+    <col min="830" max="830" width="5.6328125" customWidth="1"/>
     <col min="831" max="832" width="9" customWidth="1"/>
-    <col min="833" max="833" width="6.88671875" customWidth="1"/>
-    <col min="834" max="834" width="6.6640625" customWidth="1"/>
-    <col min="835" max="841" width="10.5546875" customWidth="1"/>
-    <col min="842" max="842" width="12.5546875" customWidth="1"/>
-    <col min="843" max="1018" width="10.5546875" customWidth="1"/>
-    <col min="1019" max="1025" width="9.109375" customWidth="1"/>
+    <col min="833" max="833" width="6.90625" customWidth="1"/>
+    <col min="834" max="834" width="6.6328125" customWidth="1"/>
+    <col min="835" max="841" width="10.54296875" customWidth="1"/>
+    <col min="842" max="842" width="12.54296875" customWidth="1"/>
+    <col min="843" max="1018" width="10.54296875" customWidth="1"/>
+    <col min="1019" max="1025" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="19" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:67" s="19" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="86" t="s">
         <v>52</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="I1" s="87" t="s">
         <v>57</v>
       </c>
       <c r="J1" s="16" t="s">
@@ -2391,7 +2387,7 @@
       <c r="P1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="91" t="s">
+      <c r="Q1" s="87" t="s">
         <v>65</v>
       </c>
       <c r="R1" s="16" t="s">
@@ -2442,19 +2438,19 @@
       <c r="AG1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="AH1" s="66" t="s">
+      <c r="AH1" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="AI1" s="92" t="s">
+      <c r="AI1" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="AJ1" s="92" t="s">
+      <c r="AJ1" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="AK1" s="92" t="s">
+      <c r="AK1" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="AL1" s="92" t="s">
+      <c r="AL1" s="88" t="s">
         <v>86</v>
       </c>
       <c r="AM1" s="17" t="s">
@@ -2466,19 +2462,19 @@
       <c r="AO1" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AP1" s="67" t="s">
+      <c r="AP1" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="AQ1" s="93" t="s">
+      <c r="AQ1" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="AR1" s="93" t="s">
+      <c r="AR1" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="AS1" s="93" t="s">
+      <c r="AS1" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="AT1" s="93" t="s">
+      <c r="AT1" s="89" t="s">
         <v>94</v>
       </c>
       <c r="AU1" s="18" t="s">
@@ -2490,19 +2486,19 @@
       <c r="AW1" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="AX1" s="68" t="s">
+      <c r="AX1" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="AY1" s="92" t="s">
+      <c r="AY1" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="AZ1" s="92" t="s">
+      <c r="AZ1" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="BA1" s="92" t="s">
+      <c r="BA1" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="BB1" s="92" t="s">
+      <c r="BB1" s="88" t="s">
         <v>102</v>
       </c>
       <c r="BC1" s="17" t="s">
@@ -2514,19 +2510,19 @@
       <c r="BE1" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="BF1" s="67" t="s">
+      <c r="BF1" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="BG1" s="93" t="s">
+      <c r="BG1" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="BH1" s="93" t="s">
+      <c r="BH1" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="BI1" s="93" t="s">
+      <c r="BI1" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="BJ1" s="93" t="s">
+      <c r="BJ1" s="89" t="s">
         <v>110</v>
       </c>
       <c r="BK1" s="18" t="s">
@@ -2538,15 +2534,15 @@
       <c r="BM1" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="BN1" s="68" t="s">
+      <c r="BN1" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="BO1" s="68" t="s">
+      <c r="BO1" s="65" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:67" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65"/>
+    <row r="2" spans="1:67" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="62"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="D2"/>
@@ -2627,7 +2623,7 @@
       <c r="AG2" s="20">
         <v>20</v>
       </c>
-      <c r="AH2" s="60">
+      <c r="AH2" s="57">
         <v>2</v>
       </c>
       <c r="AI2" s="22"/>
@@ -2658,7 +2654,7 @@
       <c r="AW2" s="13">
         <v>50</v>
       </c>
-      <c r="AX2" s="62">
+      <c r="AX2" s="59">
         <v>10</v>
       </c>
       <c r="AY2" s="22"/>
@@ -2688,12 +2684,12 @@
       <c r="BM2" s="13">
         <v>50</v>
       </c>
-      <c r="BN2" s="69">
+      <c r="BN2" s="66">
         <v>10</v>
       </c>
-      <c r="BO2" s="70"/>
+      <c r="BO2" s="67"/>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.35">
       <c r="H3" s="21"/>
       <c r="R3" s="20"/>
       <c r="AM3"/>
@@ -2705,7 +2701,7 @@
       <c r="BE3"/>
       <c r="BF3" s="1"/>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.35">
       <c r="H4" s="21"/>
       <c r="R4" s="20"/>
       <c r="AM4"/>
@@ -2717,7 +2713,7 @@
       <c r="BE4"/>
       <c r="BF4" s="1"/>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.35">
       <c r="H5" s="21"/>
       <c r="R5" s="20"/>
       <c r="AM5"/>
@@ -2729,7 +2725,7 @@
       <c r="BE5"/>
       <c r="BF5" s="1"/>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.35">
       <c r="H6" s="21"/>
       <c r="R6" s="20"/>
       <c r="AM6"/>
@@ -2741,7 +2737,7 @@
       <c r="BE6"/>
       <c r="BF6" s="1"/>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.35">
       <c r="H7" s="21"/>
       <c r="R7" s="20"/>
       <c r="AM7"/>
@@ -2753,7 +2749,7 @@
       <c r="BE7"/>
       <c r="BF7" s="1"/>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.35">
       <c r="H8" s="21"/>
       <c r="R8" s="20"/>
       <c r="AM8"/>
@@ -2765,7 +2761,7 @@
       <c r="BE8"/>
       <c r="BF8" s="1"/>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.35">
       <c r="H9" s="21"/>
       <c r="R9" s="20"/>
       <c r="AM9"/>
@@ -2777,7 +2773,7 @@
       <c r="BE9"/>
       <c r="BF9" s="1"/>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.35">
       <c r="H10" s="21"/>
       <c r="R10" s="20"/>
       <c r="AM10"/>
@@ -2789,7 +2785,7 @@
       <c r="BE10"/>
       <c r="BF10" s="1"/>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.35">
       <c r="H11" s="21"/>
       <c r="R11" s="20"/>
       <c r="AM11"/>
@@ -2801,7 +2797,7 @@
       <c r="BE11"/>
       <c r="BF11" s="1"/>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:67" x14ac:dyDescent="0.35">
       <c r="H12" s="21"/>
       <c r="R12" s="20"/>
       <c r="AM12"/>
@@ -2813,7 +2809,7 @@
       <c r="BE12"/>
       <c r="BF12" s="1"/>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.35">
       <c r="H13" s="21"/>
       <c r="R13" s="20"/>
       <c r="AM13"/>
@@ -2825,7 +2821,7 @@
       <c r="BE13"/>
       <c r="BF13" s="1"/>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.35">
       <c r="H14" s="21"/>
       <c r="R14" s="20"/>
       <c r="AM14"/>
@@ -2836,9 +2832,6 @@
       <c r="BD14"/>
       <c r="BE14"/>
       <c r="BF14" s="1"/>
-    </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="BM15" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2857,87 +2850,87 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.21875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="53.1796875" style="8" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="6.90625" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="1" customWidth="1"/>
     <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" customWidth="1"/>
-    <col min="15" max="15" width="7.21875" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.21875" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" customWidth="1"/>
+    <col min="15" max="15" width="7.1796875" customWidth="1"/>
+    <col min="16" max="16" width="10.08984375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.1796875" customWidth="1"/>
     <col min="18" max="18" width="5" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.109375" customWidth="1"/>
-    <col min="20" max="20" width="4.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="4.21875" customWidth="1"/>
+    <col min="19" max="19" width="4.08984375" customWidth="1"/>
+    <col min="20" max="20" width="4.6328125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="4.1796875" customWidth="1"/>
     <col min="22" max="22" width="4" style="1" customWidth="1"/>
-    <col min="23" max="23" width="4.5546875" customWidth="1"/>
+    <col min="23" max="23" width="4.54296875" customWidth="1"/>
     <col min="24" max="24" width="5" style="1" customWidth="1"/>
-    <col min="25" max="25" width="4.21875" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="15.88671875" customWidth="1"/>
-    <col min="29" max="29" width="15.6640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="9.109375" customWidth="1"/>
-    <col min="31" max="31" width="9.109375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="9.109375" customWidth="1"/>
-    <col min="33" max="33" width="9.109375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="9.109375" customWidth="1"/>
-    <col min="35" max="35" width="9.109375" style="1" customWidth="1"/>
-    <col min="36" max="36" width="9.109375" customWidth="1"/>
-    <col min="37" max="37" width="9.109375" style="1" customWidth="1"/>
-    <col min="38" max="38" width="9.109375" customWidth="1"/>
-    <col min="39" max="39" width="9.109375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="9.109375" customWidth="1"/>
-    <col min="41" max="41" width="9.109375" style="1" customWidth="1"/>
-    <col min="42" max="42" width="9.109375" customWidth="1"/>
-    <col min="43" max="43" width="9.109375" style="1" customWidth="1"/>
-    <col min="44" max="44" width="9.109375" customWidth="1"/>
-    <col min="45" max="45" width="9.109375" style="1" customWidth="1"/>
-    <col min="46" max="46" width="9.109375" customWidth="1"/>
-    <col min="47" max="47" width="9.109375" style="1" customWidth="1"/>
-    <col min="48" max="48" width="9.109375" customWidth="1"/>
-    <col min="49" max="49" width="9.109375" style="1" customWidth="1"/>
-    <col min="50" max="50" width="9.109375" customWidth="1"/>
-    <col min="51" max="51" width="9.109375" style="1" customWidth="1"/>
-    <col min="52" max="52" width="9.109375" customWidth="1"/>
-    <col min="53" max="53" width="9.109375" style="1" customWidth="1"/>
-    <col min="54" max="54" width="17.88671875" customWidth="1"/>
-    <col min="55" max="55" width="9.44140625" style="1" customWidth="1"/>
-    <col min="56" max="56" width="21.6640625" style="1" customWidth="1"/>
-    <col min="57" max="57" width="9.44140625" style="1" customWidth="1"/>
-    <col min="58" max="58" width="21.6640625" customWidth="1"/>
-    <col min="59" max="59" width="17.88671875" customWidth="1"/>
-    <col min="60" max="61" width="9.44140625" style="1" customWidth="1"/>
-    <col min="62" max="62" width="21.6640625" customWidth="1"/>
-    <col min="63" max="63" width="17.88671875" customWidth="1"/>
-    <col min="64" max="64" width="15.33203125" style="1" customWidth="1"/>
-    <col min="65" max="65" width="16.44140625" style="1" customWidth="1"/>
-    <col min="66" max="66" width="15.21875" style="1" customWidth="1"/>
-    <col min="67" max="67" width="18.88671875" style="1" customWidth="1"/>
-    <col min="68" max="68" width="10.5546875" customWidth="1"/>
-    <col min="69" max="70" width="10.5546875" style="1" customWidth="1"/>
-    <col min="71" max="71" width="30.77734375" style="1" customWidth="1"/>
-    <col min="72" max="73" width="10.5546875" style="9" customWidth="1"/>
-    <col min="74" max="74" width="16.33203125" customWidth="1"/>
-    <col min="75" max="77" width="10.5546875" customWidth="1"/>
-    <col min="78" max="78" width="10.5546875" style="8" customWidth="1"/>
-    <col min="79" max="790" width="10.5546875" customWidth="1"/>
-    <col min="791" max="1025" width="9.109375" customWidth="1"/>
+    <col min="25" max="25" width="4.1796875" customWidth="1"/>
+    <col min="26" max="26" width="9.6328125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.6328125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="15.90625" customWidth="1"/>
+    <col min="29" max="29" width="15.6328125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="9.08984375" customWidth="1"/>
+    <col min="31" max="31" width="9.08984375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="9.08984375" customWidth="1"/>
+    <col min="33" max="33" width="9.08984375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="9.08984375" customWidth="1"/>
+    <col min="35" max="35" width="9.08984375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="9.08984375" customWidth="1"/>
+    <col min="37" max="37" width="9.08984375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="9.08984375" customWidth="1"/>
+    <col min="39" max="39" width="9.08984375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="9.08984375" customWidth="1"/>
+    <col min="41" max="41" width="9.08984375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="9.08984375" customWidth="1"/>
+    <col min="43" max="43" width="9.08984375" style="1" customWidth="1"/>
+    <col min="44" max="44" width="9.08984375" customWidth="1"/>
+    <col min="45" max="45" width="9.08984375" style="1" customWidth="1"/>
+    <col min="46" max="46" width="9.08984375" customWidth="1"/>
+    <col min="47" max="47" width="9.08984375" style="1" customWidth="1"/>
+    <col min="48" max="48" width="9.08984375" customWidth="1"/>
+    <col min="49" max="49" width="9.08984375" style="1" customWidth="1"/>
+    <col min="50" max="50" width="9.08984375" customWidth="1"/>
+    <col min="51" max="51" width="9.08984375" style="1" customWidth="1"/>
+    <col min="52" max="52" width="9.08984375" customWidth="1"/>
+    <col min="53" max="53" width="9.08984375" style="1" customWidth="1"/>
+    <col min="54" max="54" width="17.90625" customWidth="1"/>
+    <col min="55" max="55" width="9.453125" style="1" customWidth="1"/>
+    <col min="56" max="56" width="21.6328125" style="1" customWidth="1"/>
+    <col min="57" max="57" width="9.453125" style="1" customWidth="1"/>
+    <col min="58" max="58" width="21.6328125" customWidth="1"/>
+    <col min="59" max="59" width="17.90625" customWidth="1"/>
+    <col min="60" max="61" width="9.453125" style="1" customWidth="1"/>
+    <col min="62" max="62" width="21.6328125" customWidth="1"/>
+    <col min="63" max="63" width="17.90625" customWidth="1"/>
+    <col min="64" max="64" width="15.36328125" style="1" customWidth="1"/>
+    <col min="65" max="65" width="16.453125" style="1" customWidth="1"/>
+    <col min="66" max="66" width="15.1796875" style="1" customWidth="1"/>
+    <col min="67" max="67" width="18.90625" style="1" customWidth="1"/>
+    <col min="68" max="68" width="10.54296875" customWidth="1"/>
+    <col min="69" max="70" width="10.54296875" style="1" customWidth="1"/>
+    <col min="71" max="71" width="30.81640625" style="1" customWidth="1"/>
+    <col min="72" max="73" width="10.54296875" style="9" customWidth="1"/>
+    <col min="74" max="74" width="16.36328125" customWidth="1"/>
+    <col min="75" max="77" width="10.54296875" customWidth="1"/>
+    <col min="78" max="78" width="10.54296875" style="8" customWidth="1"/>
+    <col min="79" max="790" width="10.54296875" customWidth="1"/>
+    <col min="791" max="1025" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="48" t="s">
         <v>116</v>
       </c>
       <c r="B1" s="24" t="s">
@@ -2961,22 +2954,22 @@
       <c r="H1" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="49" t="s">
         <v>124</v>
       </c>
       <c r="J1" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="51" t="s">
         <v>129</v>
       </c>
       <c r="O1" s="27" t="s">
@@ -3102,7 +3095,7 @@
       <c r="BC1" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="BD1" s="53" t="s">
+      <c r="BD1" s="52" t="s">
         <v>171</v>
       </c>
       <c r="BE1" s="33" t="s">
@@ -3111,7 +3104,7 @@
       <c r="BF1" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="BG1" s="54" t="s">
+      <c r="BG1" s="53" t="s">
         <v>174</v>
       </c>
       <c r="BH1" s="34" t="s">
@@ -3144,16 +3137,16 @@
       <c r="BQ1" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="BR1" s="75" t="s">
+      <c r="BR1" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="BS1" s="72" t="s">
+      <c r="BS1" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="BT1" s="76" t="s">
+      <c r="BT1" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="BU1" s="73" t="s">
+      <c r="BU1" s="69" t="s">
         <v>188</v>
       </c>
       <c r="BV1" s="27" t="s">
@@ -3172,190 +3165,189 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="A2" s="56"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45">
         <v>0</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48">
+      <c r="K2" s="54"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45">
         <v>1</v>
       </c>
-      <c r="P2" s="74">
+      <c r="P2" s="70">
         <v>2</v>
       </c>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="56">
+      <c r="Q2" s="45"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="55">
         <v>1</v>
       </c>
-      <c r="AB2" s="56">
+      <c r="AB2" s="55">
         <v>2</v>
       </c>
-      <c r="AC2" s="55">
+      <c r="AC2" s="54">
         <v>2</v>
       </c>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="55"/>
-      <c r="AP2" s="48"/>
-      <c r="AQ2" s="55"/>
-      <c r="AR2" s="48"/>
-      <c r="AS2" s="55"/>
-      <c r="AT2" s="48"/>
-      <c r="AU2" s="55"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="55"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="55"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="55"/>
-      <c r="BB2" s="48">
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="45"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="45"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="45"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="45"/>
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="45">
         <v>1</v>
       </c>
-      <c r="BC2" s="55">
+      <c r="BC2" s="54">
         <v>0</v>
       </c>
-      <c r="BD2" s="56">
+      <c r="BD2" s="55">
         <v>100</v>
       </c>
-      <c r="BE2" s="55">
+      <c r="BE2" s="54">
         <v>0.11</v>
       </c>
-      <c r="BF2" s="48">
+      <c r="BF2" s="45">
         <v>2</v>
       </c>
-      <c r="BG2" s="48">
+      <c r="BG2" s="45">
         <v>1</v>
       </c>
-      <c r="BH2" s="55">
+      <c r="BH2" s="54">
         <v>100</v>
       </c>
-      <c r="BI2" s="56"/>
-      <c r="BJ2" s="48"/>
-      <c r="BK2" s="48"/>
-      <c r="BL2" s="55">
+      <c r="BI2" s="55"/>
+      <c r="BJ2" s="45"/>
+      <c r="BK2" s="45"/>
+      <c r="BL2" s="54">
         <v>1</v>
       </c>
-      <c r="BM2" s="56">
+      <c r="BM2" s="55">
         <v>0</v>
       </c>
-      <c r="BN2" s="55" t="s">
+      <c r="BN2" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="BO2" s="55">
+      <c r="BO2" s="54">
         <v>1</v>
       </c>
-      <c r="BP2" s="48">
+      <c r="BP2" s="45">
         <v>1</v>
       </c>
-      <c r="BQ2" s="55">
+      <c r="BQ2" s="54">
         <v>7</v>
       </c>
-      <c r="BR2" s="74">
+      <c r="BR2" s="70">
         <v>1</v>
       </c>
-      <c r="BS2" s="55">
+      <c r="BS2" s="54">
         <v>15</v>
       </c>
-      <c r="BT2" s="56">
+      <c r="BT2" s="55">
         <v>2</v>
       </c>
-      <c r="BU2" s="56">
+      <c r="BU2" s="55">
         <v>1</v>
       </c>
-      <c r="BV2" s="48">
+      <c r="BV2" s="45">
         <v>1</v>
       </c>
-      <c r="BW2" s="48">
+      <c r="BW2" s="45">
         <v>0</v>
       </c>
-      <c r="BX2" s="48">
+      <c r="BX2" s="45">
         <v>0</v>
       </c>
-      <c r="BY2" s="48"/>
-      <c r="BZ2" s="57">
+      <c r="BY2" s="45"/>
+      <c r="BZ2" s="56">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="Y3" s="58"/>
+    <row r="3" spans="1:78" x14ac:dyDescent="0.35">
       <c r="BD3" s="9"/>
       <c r="BI3" s="9"/>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.35">
       <c r="AA4" s="9"/>
       <c r="BD4" s="9"/>
       <c r="BI4" s="9"/>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.35">
       <c r="AA5" s="9"/>
       <c r="BD5" s="9"/>
       <c r="BI5" s="9"/>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.35">
       <c r="AA6" s="9"/>
       <c r="BD6" s="9"/>
       <c r="BI6" s="9"/>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.35">
       <c r="AA7" s="9"/>
       <c r="BD7" s="9"/>
       <c r="BI7" s="9"/>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.35">
       <c r="AA8" s="9"/>
       <c r="BD8" s="9"/>
       <c r="BI8" s="9"/>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.35">
       <c r="AA9" s="9"/>
       <c r="BD9" s="9"/>
       <c r="BI9" s="9"/>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.35">
       <c r="AA10" s="9"/>
       <c r="BD10" s="9"/>
       <c r="BI10" s="9"/>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.35">
       <c r="AA11" s="9"/>
       <c r="BD11" s="9"/>
       <c r="BI11" s="9"/>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.35">
       <c r="BD12" s="9"/>
       <c r="BI12" s="9"/>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.35">
       <c r="BD13" s="9"/>
       <c r="BI13" s="9"/>
     </row>
@@ -3367,7 +3359,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3376,46 +3368,46 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="3.5546875" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="3.54296875" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="5.54296875" customWidth="1"/>
+    <col min="6" max="6" width="5.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" customWidth="1"/>
-    <col min="14" max="14" width="6.5546875" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" customWidth="1"/>
-    <col min="17" max="17" width="7.88671875" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6328125" customWidth="1"/>
+    <col min="13" max="13" width="6.6328125" customWidth="1"/>
+    <col min="14" max="14" width="6.54296875" customWidth="1"/>
+    <col min="15" max="15" width="11.54296875" customWidth="1"/>
+    <col min="16" max="16" width="9.453125" customWidth="1"/>
+    <col min="17" max="17" width="7.90625" customWidth="1"/>
+    <col min="18" max="18" width="8.90625" customWidth="1"/>
+    <col min="19" max="19" width="10.54296875" style="1" customWidth="1"/>
     <col min="20" max="20" width="3" customWidth="1"/>
-    <col min="21" max="21" width="6.88671875" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" customWidth="1"/>
-    <col min="23" max="23" width="6.88671875" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" customWidth="1"/>
-    <col min="25" max="25" width="12.44140625" customWidth="1"/>
+    <col min="21" max="21" width="6.90625" customWidth="1"/>
+    <col min="22" max="22" width="6.6328125" customWidth="1"/>
+    <col min="23" max="23" width="6.90625" customWidth="1"/>
+    <col min="24" max="24" width="11.6328125" customWidth="1"/>
+    <col min="25" max="25" width="12.453125" customWidth="1"/>
     <col min="26" max="26" width="9" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.21875" customWidth="1"/>
-    <col min="28" max="28" width="3.88671875" customWidth="1"/>
+    <col min="27" max="27" width="9.1796875" customWidth="1"/>
+    <col min="28" max="28" width="3.90625" customWidth="1"/>
     <col min="29" max="29" width="4" customWidth="1"/>
-    <col min="30" max="30" width="5.88671875" customWidth="1"/>
+    <col min="30" max="30" width="5.90625" customWidth="1"/>
     <col min="31" max="31" width="6" customWidth="1"/>
-    <col min="32" max="32" width="8.5546875" style="1" customWidth="1"/>
-    <col min="33" max="42" width="9.33203125" customWidth="1"/>
-    <col min="43" max="43" width="9.33203125" style="8" customWidth="1"/>
-    <col min="44" max="1025" width="10.5546875" customWidth="1"/>
+    <col min="32" max="32" width="8.54296875" style="1" customWidth="1"/>
+    <col min="33" max="42" width="9.36328125" customWidth="1"/>
+    <col min="43" max="43" width="9.36328125" style="8" customWidth="1"/>
+    <col min="44" max="1025" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="43" t="s">
         <v>195</v>
       </c>
@@ -3546,8 +3538,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A2" s="56"/>
       <c r="B2" s="45">
         <v>2.5</v>
       </c>
@@ -3558,7 +3550,7 @@
       <c r="E2" s="45">
         <v>1000</v>
       </c>
-      <c r="F2" s="55"/>
+      <c r="F2" s="54"/>
       <c r="G2" s="45">
         <v>3</v>
       </c>
@@ -3595,7 +3587,7 @@
       <c r="R2" s="45">
         <v>1</v>
       </c>
-      <c r="S2" s="55">
+      <c r="S2" s="54">
         <v>-1.4</v>
       </c>
       <c r="T2" s="45">
@@ -3616,7 +3608,7 @@
       <c r="Y2" s="45">
         <v>1</v>
       </c>
-      <c r="Z2" s="55">
+      <c r="Z2" s="54">
         <v>2</v>
       </c>
       <c r="AA2" s="45">
@@ -3634,7 +3626,7 @@
       <c r="AE2" s="45">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AF2" s="55">
+      <c r="AF2" s="54">
         <v>0.59</v>
       </c>
       <c r="AG2" s="45">
@@ -3667,15 +3659,36 @@
       <c r="AP2" s="45">
         <v>-0.5</v>
       </c>
-      <c r="AQ2" s="57">
+      <c r="AQ2" s="56">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="G6" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545073CE-70C8-4069-9B47-FD0DF28CDCD4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D30E0E-A69C-4CAD-B057-D1D3B90899A8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>